--- a/data/trans_orig/IP36BS1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP36BS1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FFA61A7-B6AB-422F-938D-4A8EF090E5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01D710E2-A404-4BDD-9C0E-B7B209CC4216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{010AC692-5EFF-42AA-AA54-90BBA3FC2B0F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35D544A8-02D7-4169-BC18-7B47E4F0EB72}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="503">
   <si>
     <t>Adultos según el tipo de pensión que perciben en 2007 (Tasa respuesta: 3,18%)</t>
   </si>
@@ -116,1384 +116,1363 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>31,13%</t>
+    <t>23,21%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según el tipo de pensión que perciben en 2012 (Tasa respuesta: 5,38%)</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>Adultos según el tipo de pensión que perciben en 2016 (Tasa respuesta: 5,17%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
     <t>14,65%</t>
   </si>
   <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según el tipo de pensión que perciben en 2012 (Tasa respuesta: 5,38%)</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>Adultos según el tipo de pensión que perciben en 2015 (Tasa respuesta: 5,17%)</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>Adultos según el tipo de pensión que perciben en 2023 (Tasa respuesta: 0,68%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>24,86%</t>
   </si>
   <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>Adultos según el tipo de pensión que perciben en 2023 (Tasa respuesta: 0,68%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -1502,79 +1481,73 @@
     <t>33,68%</t>
   </si>
   <si>
-    <t>79,02%</t>
+    <t>81,63%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>74,42%</t>
+    <t>72,51%</t>
   </si>
   <si>
     <t>25,27%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
+    <t>62,28%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>53,16%</t>
+    <t>54,0%</t>
   </si>
   <si>
     <t>37,18%</t>
   </si>
   <si>
-    <t>83,17%</t>
-  </si>
-  <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>83,37%</t>
+    <t>86,13%</t>
   </si>
   <si>
     <t>26,32%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
+    <t>64,1%</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8990E62C-FDCA-4C92-A0EB-24F200B9991C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CB5A3B-7E99-40D3-B1ED-8C9EE87B40BF}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4369,7 +4342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4B2E6-DBF2-4A4F-AF2D-9AE8CF593797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E415EDBB-91D7-454D-A93F-EB40051EE5E5}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5023,7 +4996,7 @@
         <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,7 +5047,7 @@
         <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,7 +5098,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,7 +5149,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5164,13 @@
         <v>1497</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -5209,10 +5182,10 @@
         <v>70</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -5221,13 +5194,13 @@
         <v>3345</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5215,13 @@
         <v>3482</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5257,13 +5230,13 @@
         <v>2706</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5272,13 +5245,13 @@
         <v>6188</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5266,13 @@
         <v>2562</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5308,13 +5281,13 @@
         <v>1128</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -5323,13 +5296,13 @@
         <v>3690</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5370,13 @@
         <v>1772</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5412,13 +5385,13 @@
         <v>1777</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -5427,13 +5400,13 @@
         <v>3549</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5421,13 @@
         <v>12643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -5463,13 +5436,13 @@
         <v>11508</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -5478,13 +5451,13 @@
         <v>24151</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5472,13 @@
         <v>682</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5529,13 +5502,13 @@
         <v>683</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,7 +5529,7 @@
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5586,7 +5559,7 @@
         <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,7 +5580,7 @@
         <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5637,7 +5610,7 @@
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5625,13 @@
         <v>4804</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -5667,13 +5640,13 @@
         <v>3996</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
@@ -5682,13 +5655,13 @@
         <v>8800</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5676,13 @@
         <v>1941</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5718,13 +5691,13 @@
         <v>2553</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -5733,13 +5706,13 @@
         <v>4494</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5727,13 @@
         <v>3227</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -5769,13 +5742,13 @@
         <v>3569</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5784,13 +5757,13 @@
         <v>6796</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,7 +5837,7 @@
         <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5894,7 +5867,7 @@
         <v>21</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5882,13 @@
         <v>3074</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -5924,7 +5897,7 @@
         <v>1683</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>20</v>
@@ -5939,13 +5912,13 @@
         <v>4757</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,7 +5939,7 @@
         <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5996,7 +5969,7 @@
         <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,7 +5990,7 @@
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6047,7 +6020,7 @@
         <v>21</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,7 +6041,7 @@
         <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6098,7 +6071,7 @@
         <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6086,13 @@
         <v>652</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -6128,7 +6101,7 @@
         <v>1417</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>20</v>
@@ -6143,13 +6116,13 @@
         <v>2070</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6137,13 @@
         <v>1374</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6194,13 +6167,13 @@
         <v>1374</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,7 +6194,7 @@
         <v>21</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6251,7 +6224,7 @@
         <v>21</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6292,13 @@
         <v>2413</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H40" s="7">
         <v>4</v>
@@ -6334,13 +6307,13 @@
         <v>2422</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -6349,13 +6322,13 @@
         <v>4835</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,13 +6343,13 @@
         <v>17707</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H41" s="7">
         <v>25</v>
@@ -6385,13 +6358,13 @@
         <v>16893</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M41" s="7">
         <v>50</v>
@@ -6400,13 +6373,13 @@
         <v>34601</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6394,13 @@
         <v>682</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -6442,7 +6415,7 @@
         <v>21</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -6451,13 +6424,13 @@
         <v>683</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,7 +6451,7 @@
         <v>21</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -6493,7 +6466,7 @@
         <v>21</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -6508,7 +6481,7 @@
         <v>21</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,7 +6502,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -6544,7 +6517,7 @@
         <v>21</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -6559,7 +6532,7 @@
         <v>21</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6547,13 @@
         <v>6954</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H45" s="7">
         <v>10</v>
@@ -6589,13 +6562,13 @@
         <v>7262</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M45" s="7">
         <v>20</v>
@@ -6604,13 +6577,13 @@
         <v>14216</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6598,13 @@
         <v>6798</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>167</v>
+        <v>277</v>
       </c>
       <c r="H46" s="7">
         <v>8</v>
@@ -6640,13 +6613,13 @@
         <v>5258</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="M46" s="7">
         <v>19</v>
@@ -6655,13 +6628,13 @@
         <v>12056</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6649,13 @@
         <v>5790</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H47" s="7">
         <v>7</v>
@@ -6691,13 +6664,13 @@
         <v>4697</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M47" s="7">
         <v>16</v>
@@ -6706,13 +6679,13 @@
         <v>10486</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,7 +6761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C592783-4B3A-4AF6-A78D-2FEB72560EF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E87DD5-F83A-4686-9100-7566168D4BE8}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6805,7 +6778,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7340,7 +7313,7 @@
         <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7355,7 +7328,7 @@
         <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7343,13 @@
         <v>1872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -7385,13 +7358,13 @@
         <v>1917</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -7400,13 +7373,13 @@
         <v>3789</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,7 +7415,7 @@
         <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -7457,7 +7430,7 @@
         <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7493,7 +7466,7 @@
         <v>21</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7508,7 +7481,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7544,7 +7517,7 @@
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7559,7 +7532,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,13 +7562,13 @@
         <v>1370</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -7604,13 +7577,13 @@
         <v>1370</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7625,13 +7598,13 @@
         <v>5493</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7646,7 +7619,7 @@
         <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -7655,13 +7628,13 @@
         <v>5493</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,13 +7649,13 @@
         <v>3649</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -7691,13 +7664,13 @@
         <v>2639</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>171</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -7706,13 +7679,13 @@
         <v>6287</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>165</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,13 +7753,13 @@
         <v>770</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7795,13 +7768,13 @@
         <v>1168</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>329</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -7810,13 +7783,13 @@
         <v>1938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7831,13 +7804,13 @@
         <v>10899</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -7846,13 +7819,13 @@
         <v>6211</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -7861,13 +7834,13 @@
         <v>17110</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,13 +7855,13 @@
         <v>763</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7912,13 +7885,13 @@
         <v>763</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,13 +7906,13 @@
         <v>666</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7963,13 +7936,13 @@
         <v>666</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,13 +7957,13 @@
         <v>820</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8014,13 +7987,13 @@
         <v>820</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,13 +8008,13 @@
         <v>3287</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -8050,13 +8023,13 @@
         <v>7732</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M27" s="7">
         <v>18</v>
@@ -8065,13 +8038,13 @@
         <v>11019</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,13 +8059,13 @@
         <v>734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>362</v>
+        <v>271</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -8101,13 +8074,13 @@
         <v>1276</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -8116,13 +8089,13 @@
         <v>2010</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8110,13 @@
         <v>9903</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>359</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -8152,13 +8125,13 @@
         <v>3372</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -8167,13 +8140,13 @@
         <v>13276</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8241,13 +8214,13 @@
         <v>717</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8262,7 +8235,7 @@
         <v>21</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -8271,13 +8244,13 @@
         <v>717</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,13 +8265,13 @@
         <v>1339</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -8307,13 +8280,13 @@
         <v>1106</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -8322,13 +8295,13 @@
         <v>2445</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>386</v>
+        <v>247</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8349,7 +8322,7 @@
         <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8364,7 +8337,7 @@
         <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -8379,7 +8352,7 @@
         <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8400,7 +8373,7 @@
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8415,7 +8388,7 @@
         <v>21</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8430,7 +8403,7 @@
         <v>21</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8451,7 +8424,7 @@
         <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -8466,7 +8439,7 @@
         <v>21</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -8481,7 +8454,7 @@
         <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,13 +8484,13 @@
         <v>626</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -8526,13 +8499,13 @@
         <v>626</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>74</v>
+        <v>382</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8553,7 +8526,7 @@
         <v>21</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -8562,13 +8535,13 @@
         <v>540</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -8577,13 +8550,13 @@
         <v>540</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8598,13 +8571,13 @@
         <v>3765</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -8613,13 +8586,13 @@
         <v>705</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -8628,13 +8601,13 @@
         <v>4470</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8702,13 +8675,13 @@
         <v>1487</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -8717,13 +8690,13 @@
         <v>1168</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -8732,13 +8705,13 @@
         <v>2655</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8753,13 +8726,13 @@
         <v>14110</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="H41" s="7">
         <v>15</v>
@@ -8768,13 +8741,13 @@
         <v>9235</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M41" s="7">
         <v>36</v>
@@ -8783,13 +8756,13 @@
         <v>23344</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8804,13 +8777,13 @@
         <v>763</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -8825,7 +8798,7 @@
         <v>21</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -8834,13 +8807,13 @@
         <v>763</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8855,13 +8828,13 @@
         <v>666</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -8876,7 +8849,7 @@
         <v>21</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -8885,13 +8858,13 @@
         <v>666</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8906,13 +8879,13 @@
         <v>820</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -8927,7 +8900,7 @@
         <v>21</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -8936,13 +8909,13 @@
         <v>820</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8957,13 +8930,13 @@
         <v>3287</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H45" s="7">
         <v>16</v>
@@ -8972,13 +8945,13 @@
         <v>9729</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="M45" s="7">
         <v>22</v>
@@ -8987,13 +8960,13 @@
         <v>13016</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9008,13 +8981,13 @@
         <v>6227</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -9023,13 +8996,13 @@
         <v>1815</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M46" s="7">
         <v>12</v>
@@ -9038,13 +9011,13 @@
         <v>8042</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9059,13 +9032,13 @@
         <v>17317</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>450</v>
+        <v>37</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -9074,13 +9047,13 @@
         <v>6716</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M47" s="7">
         <v>33</v>
@@ -9089,13 +9062,13 @@
         <v>24033</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9171,7 +9144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76311710-EDBF-4EC9-B6E6-0702DEAB4094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DE1721-6F37-4D2B-BBD8-38C8FFD53818}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9188,7 +9161,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9738,7 +9711,7 @@
         <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9789,7 +9762,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9834,7 +9807,7 @@
         <v>783</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>20</v>
@@ -9891,7 +9864,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9906,7 +9879,7 @@
         <v>352</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
@@ -9936,7 +9909,7 @@
         <v>352</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
@@ -9993,7 +9966,7 @@
         <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10044,7 +10017,7 @@
         <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10059,7 +10032,7 @@
         <v>586</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
@@ -10089,7 +10062,7 @@
         <v>586</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
@@ -10199,7 +10172,7 @@
         <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10250,7 +10223,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10265,13 +10238,13 @@
         <v>2139</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -10295,13 +10268,13 @@
         <v>2139</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10352,7 +10325,7 @@
         <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10367,13 +10340,13 @@
         <v>1590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -10382,13 +10355,13 @@
         <v>800</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -10397,13 +10370,13 @@
         <v>2389</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10418,13 +10391,13 @@
         <v>657</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -10433,7 +10406,7 @@
         <v>1672</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>476</v>
+        <v>243</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -10448,13 +10421,13 @@
         <v>2330</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10505,7 +10478,7 @@
         <v>21</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10520,13 +10493,13 @@
         <v>1027</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -10535,13 +10508,13 @@
         <v>1242</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>93</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -10550,13 +10523,13 @@
         <v>2269</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11037,7 +11010,7 @@
         <v>21</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -11052,7 +11025,7 @@
         <v>21</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -11088,7 +11061,7 @@
         <v>21</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -11103,7 +11076,7 @@
         <v>21</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -11133,13 +11106,13 @@
         <v>2139</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -11148,13 +11121,13 @@
         <v>783</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
@@ -11163,13 +11136,13 @@
         <v>2923</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>148</v>
+        <v>483</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11190,7 +11163,7 @@
         <v>21</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -11205,7 +11178,7 @@
         <v>21</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -11235,13 +11208,13 @@
         <v>1941</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -11250,13 +11223,13 @@
         <v>800</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M44" s="7">
         <v>3</v>
@@ -11265,13 +11238,13 @@
         <v>2741</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>495</v>
+        <v>54</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11286,13 +11259,13 @@
         <v>657</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -11301,13 +11274,13 @@
         <v>1672</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>500</v>
+        <v>93</v>
       </c>
       <c r="M45" s="7">
         <v>3</v>
@@ -11316,13 +11289,13 @@
         <v>2330</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11343,7 +11316,7 @@
         <v>21</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -11358,7 +11331,7 @@
         <v>21</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -11388,13 +11361,13 @@
         <v>1613</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -11403,13 +11376,13 @@
         <v>1242</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -11418,13 +11391,13 @@
         <v>2855</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>510</v>
+        <v>371</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
